--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,121 +46,121 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cook</t>
@@ -169,21 +169,15 @@
     <t>easy</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -193,18 +187,21 @@
     <t>works</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>little</t>
+    <t>bought</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
@@ -214,13 +211,13 @@
     <t>quality</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
   </si>
   <si>
     <t>one</t>
@@ -587,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2868217054263566</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +703,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +729,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +755,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8591331269349846</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>555</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>555</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +781,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +807,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7922077922077922</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,13 +833,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -862,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7727272727272727</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L10">
         <v>34</v>
@@ -880,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -888,13 +885,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L11">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M11">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -914,13 +911,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6779661016949152</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -940,13 +937,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.676056338028169</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -966,13 +963,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6617647058823529</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -992,13 +989,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6420545746388443</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L15">
-        <v>800</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>800</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>446</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,13 +1015,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6326530612244898</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1041,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6301369863013698</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>801</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>801</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1070,13 +1067,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1099,10 +1096,10 @@
         <v>0.625</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1122,13 +1119,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6171428571428571</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L20">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1148,13 +1145,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6142857142857143</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1174,13 +1171,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.6140350877192983</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1200,13 +1197,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.6041666666666666</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1226,13 +1223,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1252,13 +1249,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5641025641025641</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L25">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1278,13 +1275,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5396825396825397</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1304,13 +1301,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5245901639344263</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1330,13 +1327,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5149700598802395</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L28">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1348,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1356,13 +1353,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5060240963855421</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1382,13 +1379,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4923076923076923</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1408,13 +1405,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4903846153846154</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1426,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1434,13 +1431,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4887218045112782</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L32">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1460,13 +1457,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4736842105263158</v>
+        <v>0.47</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1478,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1486,13 +1483,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4444444444444444</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1504,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1512,13 +1509,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4156626506024096</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L35">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M35">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1530,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1538,13 +1535,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.38</v>
+        <v>0.3540856031128405</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1564,13 +1561,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3513513513513514</v>
+        <v>0.3480392156862745</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1582,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>72</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1590,13 +1587,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3463035019455253</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L38">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1608,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1616,13 +1613,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3458646616541353</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1634,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1642,13 +1639,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3357843137254902</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L40">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="M40">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1660,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>271</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1668,13 +1665,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.3267326732673267</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1694,13 +1691,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.3240740740740741</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1712,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1720,13 +1717,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.3054794520547945</v>
+        <v>0.2794520547945206</v>
       </c>
       <c r="L43">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M43">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1738,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1746,13 +1743,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.302158273381295</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1764,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1772,13 +1769,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2535885167464115</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L45">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="M45">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>156</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1798,13 +1795,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2516556291390729</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1816,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1824,13 +1821,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2483221476510067</v>
+        <v>0.2288401253918495</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1842,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>112</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1850,13 +1847,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2421959095801938</v>
+        <v>0.1892583120204604</v>
       </c>
       <c r="L48">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="M48">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1868,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>704</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1876,13 +1873,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.219435736677116</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L49">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="M49">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1894,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>249</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1902,13 +1899,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1828644501278772</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L50">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1920,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>639</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1928,13 +1925,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1721854304635762</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="L51">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1946,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>625</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1980,13 +1977,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.140893470790378</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1998,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>250</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2006,13 +2003,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.138655462184874</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L54">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2024,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2032,13 +2029,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.1362530413625304</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L55">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2050,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>355</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2058,13 +2055,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.1328413284132841</v>
+        <v>0.125</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2076,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>235</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2084,13 +2081,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1136363636363636</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2102,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2110,13 +2107,13 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1097852028639618</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L58">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2128,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>373</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2136,13 +2133,13 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.1074561403508772</v>
+        <v>0.1030701754385965</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M59">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2154,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2162,25 +2159,25 @@
         <v>67</v>
       </c>
       <c r="K60">
-        <v>0.09899569583931134</v>
+        <v>0.08177905308464849</v>
       </c>
       <c r="L60">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M60">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2188,13 +2185,13 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.08743169398907104</v>
+        <v>0.06623134328358209</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2206,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>334</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2214,51 +2211,25 @@
         <v>69</v>
       </c>
       <c r="K62">
-        <v>0.06722689075630252</v>
+        <v>0.04163052905464007</v>
       </c>
       <c r="L62">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M62">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K63">
-        <v>0.03719723183391004</v>
-      </c>
-      <c r="L63">
-        <v>43</v>
-      </c>
-      <c r="M63">
-        <v>44</v>
-      </c>
-      <c r="N63">
-        <v>0.98</v>
-      </c>
-      <c r="O63">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1113</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
